--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>广发中证传媒ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.42</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515860</t>
+          <t>159805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
+          <t>鹏华中证传媒ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>515860</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>嘉实中证新兴科技100策略ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>92.45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -693,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +792,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +822,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>广发中证传媒ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>31.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -762,25 +860,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -790,26 +898,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -818,25 +936,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>159805</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>鹏华中证传媒ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>97.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -846,25 +974,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.39</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -874,26 +1012,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1050,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -1074,6 +1074,402 @@
       </c>
       <c r="H8" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6424</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1475,4 +1476,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4238</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2064,4 +2065,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2073,7 +2074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2084,17 +2085,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2104,14 +2125,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.45</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2120,14 +2163,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.08</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2136,14 +2201,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.51</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2152,13 +2239,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2776,7 +2777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,17 +2788,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2807,14 +2828,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.130000000000001</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2823,14 +2866,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.45</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2839,14 +2904,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.08</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5950</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2855,14 +2942,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.51</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2871,13 +2980,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3403,7 +3404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,17 +3415,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3434,14 +3455,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.11</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3450,14 +3493,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.130000000000001</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3466,14 +3531,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.45</v>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3482,14 +3569,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.08</v>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3498,14 +3607,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.51</v>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3514,13 +3645,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.11</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>9.130000000000001</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>7.45</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>3.08</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>2.51</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>99.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6499</t>
+          <t>0.5956</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>97.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4505</t>
+          <t>0.3436</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -742,22 +759,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.89</t>
+          <t>96.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1163</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -775,27 +792,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>富国中证体育产业指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0701</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159725</t>
+          <t>517500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+          <t>国泰中证沪港深动漫游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0318</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>013278</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>富国中证体育产业指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013278</t>
+          <t>159725</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数C</t>
+          <t>工银瑞信中证线上消费主题ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>98.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014256</t>
+          <t>159728</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）C</t>
+          <t>南方国证在线消费ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +977,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2875,7 +3252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3271,7 +3648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3586,7 +3963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
+++ b/数据整理/stocks/A股/深证主板/002602-世纪华通.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.18</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.11</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>9.130000000000001</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>7.45</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>3.08</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>2.51</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,354 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +1010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>广发中证传媒ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>48.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5956</t>
+          <t>2.0097</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.86</t>
+          <t>99.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3436</t>
+          <t>0.6653</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +1086,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.39</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0917</t>
+          <t>0.4060</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +1124,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数A</t>
+          <t>鹏华中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0701</t>
+          <t>0.2758</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1162,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>517500</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰中证沪港深动漫游戏ETF</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>97.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0318</t>
+          <t>0.1060</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1200,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013278</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数C</t>
+          <t>富国中证体育产业指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0773</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1238,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>159725</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信中证线上消费主题ETF</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.42</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0713</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1276,416 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>159728</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>南方国证在线消费ETF</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>0.0110</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>7</v>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1043,26 +1760,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>99.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6499</t>
+          <t>0.5956</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1081,26 +1798,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>97.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4505</t>
+          <t>0.3436</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1119,22 +1836,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.89</t>
+          <t>96.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1163</t>
+          <t>0.0917</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1152,27 +1869,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>富国中证体育产业指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0701</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1185,36 +1902,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159725</t>
+          <t>517500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+          <t>国泰中证沪港深动漫游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>92.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0318</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1223,36 +1940,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>013278</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>富国中证体育产业指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1261,36 +1978,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013278</t>
+          <t>159725</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数C</t>
+          <t>工银瑞信中证线上消费主题ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>98.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1299,36 +2016,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014256</t>
+          <t>159728</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）C</t>
+          <t>南方国证在线消费ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1337,6 +2054,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1962,7 +3039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2664,7 +3741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3252,7 +4329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3648,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3961,324 +5038,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512980</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2319</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3546</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1405</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515860</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1360</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>